--- a/biology/Zoologie/Chlorocoris/Chlorocoris.xlsx
+++ b/biology/Zoologie/Chlorocoris/Chlorocoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorocoris est un genre d'insectes appartenant au sous-ordre des hétéroptères (punaises) et à la famille des Pentatomidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Chlorocoris se trouvent en Amérique du Sud et Amérique Centrale jusqu'en Arizona[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Chlorocoris se trouvent en Amérique du Sud et Amérique Centrale jusqu'en Arizona.
 </t>
         </is>
       </c>
@@ -542,12 +556,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Chlorocoris est décrit pour la première fois par l'entomologiste italien Massimiliano Spinola en 1837. Donald B. Thomas révise le genre en 1985. Il divise les 23 espèces en deux sous-genres: Chlorocoris (Chlorocoris) et Chlorocoris (Monochrocerus)[1]. En 1998, Thomas décrit une nouvelle espèce de Jamaïque et érige pour l'occasion un troisième sous-genre Chlorocoris (Arawacoris)[2].
-Proche parent des genres Chloropepla, Fecelia, Loxa et Mayrinia, Chlorocoris  est d'abord classé dans la tribu des Pentatomini puis est déplacé dans une nouvelle tribu décrite en 2018, les Chlorocorini[3]. 
-Liste des espèces
-Sous-genre Chlorocoris (Arawacoris) Thomas, 1998
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chlorocoris est décrit pour la première fois par l'entomologiste italien Massimiliano Spinola en 1837. Donald B. Thomas révise le genre en 1985. Il divise les 23 espèces en deux sous-genres: Chlorocoris (Chlorocoris) et Chlorocoris (Monochrocerus). En 1998, Thomas décrit une nouvelle espèce de Jamaïque et érige pour l'occasion un troisième sous-genre Chlorocoris (Arawacoris).
+Proche parent des genres Chloropepla, Fecelia, Loxa et Mayrinia, Chlorocoris  est d'abord classé dans la tribu des Pentatomini puis est déplacé dans une nouvelle tribu décrite en 2018, les Chlorocorini. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chlorocoris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorocoris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sous-genre Chlorocoris (Arawacoris) Thomas, 1998
 Chlorocoris tarsalis Thomas, 1998
 Sous-genre Chlorocoris (Chlorocoris) Spinola, 1837
 Chlorocoris complanatus (Guérin-Méneville, 1831)
